--- a/Ensayo5.xlsx
+++ b/Ensayo5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.066031</t>
+          <t>2023-09-22 10:42:27.126131</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24.99997</t>
+          <t>24.99994</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -538,7800 +538,7750 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.162772</t>
+          <t>2023-09-22 10:42:27.222874</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09674099999999999</v>
+        <v>0.096743</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00004</t>
+          <t>24.99994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00133</t>
+          <t>24.99994</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00044</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24.9999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24.99982</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24.99864</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24.99956</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.259356</t>
+          <t>2023-09-22 10:42:27.320033</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.193325</v>
+        <v>0.193902</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00004</t>
+          <t>24.99994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00133</t>
+          <t>24.99994</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00044</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24.9999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.99982</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24.99864</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>24.99956</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.355975</t>
+          <t>2023-09-22 10:42:27.423476</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.289944</v>
+        <v>0.297345</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.06977</t>
+          <t>0.03499</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0721</t>
+          <t>0.03565</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00133</t>
+          <t>0.03584</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.03548</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24.93017</t>
+          <t>24.96495</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.9279</t>
+          <t>24.96435</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24.99864</t>
+          <t>24.9641</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>24.924</t>
+          <t>24.96452</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.452354</t>
+          <t>2023-09-22 10:42:27.521537</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.386323</v>
+        <v>0.395406</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.06977</t>
+          <t>0.03499</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0721</t>
+          <t>0.03565</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.09197</t>
+          <t>0.03584</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.03548</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24.93017</t>
+          <t>24.96495</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.9279</t>
+          <t>24.96435</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24.908</t>
+          <t>24.9641</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>24.924</t>
+          <t>24.96452</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.548358</t>
+          <t>2023-09-22 10:42:27.619581</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.482327</v>
+        <v>0.49345</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.06977</t>
+          <t>0.19997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0721</t>
+          <t>0.03565</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.09197</t>
+          <t>0.20188</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.20275</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24.93017</t>
+          <t>24.79997</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.9279</t>
+          <t>24.96435</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24.908</t>
+          <t>24.79806</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>24.924</t>
+          <t>24.79725</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.644570</t>
+          <t>2023-09-22 10:42:27.718495</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.578539</v>
+        <v>0.592364</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.26558</t>
+          <t>0.19997</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.27006</t>
+          <t>0.20125</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.30444</t>
+          <t>0.20188</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.20275</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24.73436</t>
+          <t>24.79997</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24.72994</t>
+          <t>24.79875</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24.69553</t>
+          <t>24.79806</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24.7229</t>
+          <t>24.79725</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.740946</t>
+          <t>2023-09-22 10:42:27.815297</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.674915</v>
+        <v>0.6891659999999999</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.26558</t>
+          <t>0.19997</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27006</t>
+          <t>0.20125</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.30444</t>
+          <t>0.20188</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.20275</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24.73436</t>
+          <t>24.79997</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.72994</t>
+          <t>24.79875</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24.69553</t>
+          <t>24.79806</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>24.7229</t>
+          <t>24.79725</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.836946</t>
+          <t>2023-09-22 10:42:27.911806</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.770915</v>
+        <v>0.785675</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.26558</t>
+          <t>0.45834</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27006</t>
+          <t>0.46028</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.30444</t>
+          <t>0.46069</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.4665</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24.73436</t>
+          <t>24.5416</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.72994</t>
+          <t>24.53972</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24.69553</t>
+          <t>24.53925</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>24.7229</t>
+          <t>24.5335</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:42.932738</t>
+          <t>2023-09-22 10:42:28.008767</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.866707</v>
+        <v>0.882636</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.53002</t>
+          <t>0.45834</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.5344</t>
+          <t>0.46028</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.56851</t>
+          <t>0.46069</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.54123</t>
+          <t>0.4665</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24.46992</t>
+          <t>24.5416</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>24.4656</t>
+          <t>24.53972</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24.43146</t>
+          <t>24.53925</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>24.45877</t>
+          <t>24.5335</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.028683</t>
+          <t>2023-09-22 10:42:28.105481</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.962652</v>
+        <v>0.9793500000000001</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.53002</t>
+          <t>0.45834</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.5344</t>
+          <t>0.46028</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.56851</t>
+          <t>0.46069</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.54123</t>
+          <t>0.4665</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24.46992</t>
+          <t>24.5416</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.4656</t>
+          <t>24.53972</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>24.43146</t>
+          <t>24.53925</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>24.45877</t>
+          <t>24.5335</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.125361</t>
+          <t>2023-09-22 10:42:28.202290</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.05933</v>
+        <v>1.076159</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.78041</t>
+          <t>0.72181</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.7848</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.56851</t>
+          <t>0.72334</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.79196</t>
+          <t>0.72334</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24.21953</t>
+          <t>24.27813</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.2152</t>
+          <t>24.277</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24.43146</t>
+          <t>24.2766</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>24.20804</t>
+          <t>24.27666</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.221722</t>
+          <t>2023-09-22 10:42:28.301595</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.155691</v>
+        <v>1.175464</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.78041</t>
+          <t>0.72181</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.7848</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.81994</t>
+          <t>0.72334</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.79196</t>
+          <t>0.72334</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24.21953</t>
+          <t>24.27813</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24.2152</t>
+          <t>24.277</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>24.18003</t>
+          <t>24.2766</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>24.20804</t>
+          <t>24.27666</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.317509</t>
+          <t>2023-09-22 10:42:28.399411</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.251478</v>
+        <v>1.27328</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.78041</t>
+          <t>0.72181</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7848</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.81994</t>
+          <t>0.98774</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.79196</t>
+          <t>0.9867</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24.21953</t>
+          <t>24.27813</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24.2152</t>
+          <t>24.277</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>24.18003</t>
+          <t>24.0122</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24.20804</t>
+          <t>24.0133</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.413439</t>
+          <t>2023-09-22 10:42:28.496889</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.347408</v>
+        <v>1.370758</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.03062</t>
+          <t>0.98384</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>0.98542</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.06960</t>
+          <t>0.98774</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.04225</t>
+          <t>0.9867</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23.96932</t>
+          <t>24.0161</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23.9649</t>
+          <t>24.01458</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23.93037</t>
+          <t>24.0122</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23.95775</t>
+          <t>24.0133</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.509455</t>
+          <t>2023-09-22 10:42:28.593504</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.443424</v>
+        <v>1.467373</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.03062</t>
+          <t>0.98384</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>0.98542</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.06960</t>
+          <t>0.98774</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.04225</t>
+          <t>0.9867</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23.96932</t>
+          <t>24.0161</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23.9649</t>
+          <t>24.01458</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>23.93037</t>
+          <t>24.0122</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>23.95775</t>
+          <t>24.0133</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.605775</t>
+          <t>2023-09-22 10:42:28.690760</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.539744</v>
+        <v>1.564629</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.03062</t>
+          <t>1.24688</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.0351</t>
+          <t>1.24903</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.06960</t>
+          <t>1.24902</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.04225</t>
+          <t>1.25105</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23.96932</t>
+          <t>23.75306</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.9649</t>
+          <t>23.75097</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23.93037</t>
+          <t>23.75092</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23.95775</t>
+          <t>23.74895</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.702765</t>
+          <t>2023-09-22 10:42:28.787836</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.636734</v>
+        <v>1.661705</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.29562</t>
+          <t>1.24688</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.30013</t>
+          <t>1.24903</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.33399</t>
+          <t>1.24902</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.3074</t>
+          <t>1.25105</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23.70432</t>
+          <t>23.75306</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23.69987</t>
+          <t>23.75097</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>23.66598</t>
+          <t>23.75092</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>23.6926</t>
+          <t>23.74895</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.799026</t>
+          <t>2023-09-22 10:42:28.884180</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.732995</v>
+        <v>1.758049</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.29562</t>
+          <t>1.24688</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.30013</t>
+          <t>1.24903</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.33399</t>
+          <t>1.24902</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.3074</t>
+          <t>1.25105</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23.70432</t>
+          <t>23.75306</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23.69987</t>
+          <t>23.75097</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>23.66598</t>
+          <t>23.75092</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>23.6926</t>
+          <t>23.74895</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.895250</t>
+          <t>2023-09-22 10:42:28.980929</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.829219</v>
+        <v>1.854798</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.29562</t>
+          <t>1.49837</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.30013</t>
+          <t>1.5001</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.33399</t>
+          <t>1.50077</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.3074</t>
+          <t>1.50282</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23.70432</t>
+          <t>23.50157</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23.69987</t>
+          <t>23.4999</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>23.66598</t>
+          <t>23.49917</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23.6926</t>
+          <t>23.49718</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:43.991962</t>
+          <t>2023-09-22 10:42:29.100645</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.925931</v>
+        <v>1.974514</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.55934</t>
+          <t>1.49837</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.5639</t>
+          <t>1.5001</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.59899</t>
+          <t>1.50077</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.57072</t>
+          <t>1.50282</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23.4406</t>
+          <t>23.50157</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23.4361</t>
+          <t>23.4999</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>23.40098</t>
+          <t>23.49917</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23.42928</t>
+          <t>23.49718</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.088918</t>
+          <t>2023-09-22 10:42:29.200890</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.022887</v>
+        <v>2.074759</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.55934</t>
+          <t>1.75870</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.5639</t>
+          <t>1.7606</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.59899</t>
+          <t>1.76104</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.57072</t>
+          <t>1.77841</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23.4406</t>
+          <t>23.24124</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23.4361</t>
+          <t>23.2394</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>23.40098</t>
+          <t>23.2389</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23.42928</t>
+          <t>23.22159</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.184830</t>
+          <t>2023-09-22 10:42:29.297510</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.118799</v>
+        <v>2.171379</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.80938</t>
+          <t>1.75870</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.81363</t>
+          <t>1.7606</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.59899</t>
+          <t>1.76104</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.82072</t>
+          <t>1.77841</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23.19056</t>
+          <t>23.24124</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.18637</t>
+          <t>23.2394</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>23.40098</t>
+          <t>23.2389</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23.17928</t>
+          <t>23.22159</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.281773</t>
+          <t>2023-09-22 10:42:29.394402</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.215742</v>
+        <v>2.268271</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.80938</t>
+          <t>1.75870</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.81363</t>
+          <t>1.7606</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.86402</t>
+          <t>1.76104</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.82072</t>
+          <t>1.77841</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23.19056</t>
+          <t>23.24124</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23.18637</t>
+          <t>23.2394</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>23.13595</t>
+          <t>23.2389</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23.17928</t>
+          <t>23.22159</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.378653</t>
+          <t>2023-09-22 10:42:29.492190</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.312622</v>
+        <v>2.366059</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.80938</t>
+          <t>2.01204</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.81363</t>
+          <t>2.0165</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.86402</t>
+          <t>2.01409</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.82072</t>
+          <t>2.03467</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23.19056</t>
+          <t>22.9879</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23.18637</t>
+          <t>22.9835</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>23.13595</t>
+          <t>22.98585</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>23.17928</t>
+          <t>22.96533</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.474798</t>
+          <t>2023-09-22 10:42:29.589036</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.408767</v>
+        <v>2.462905</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.06011</t>
+          <t>2.01204</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.06468</t>
+          <t>2.0165</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.12873</t>
+          <t>2.01409</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.07177</t>
+          <t>2.03467</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22.93983</t>
+          <t>22.9879</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.93532</t>
+          <t>22.9835</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>22.87124</t>
+          <t>22.98585</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>22.92823</t>
+          <t>22.96533</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.571546</t>
+          <t>2023-09-22 10:42:29.687405</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.505515</v>
+        <v>2.561274</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.06011</t>
+          <t>2.01204</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.06468</t>
+          <t>2.0165</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.12873</t>
+          <t>2.26584</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.07177</t>
+          <t>2.03467</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22.93983</t>
+          <t>22.9879</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22.93532</t>
+          <t>22.9835</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>22.87124</t>
+          <t>22.7341</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>22.92823</t>
+          <t>22.96533</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.667768</t>
+          <t>2023-09-22 10:42:29.784869</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.601737</v>
+        <v>2.658738</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.06011</t>
+          <t>2.27854</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.06468</t>
+          <t>2.2808</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.12873</t>
+          <t>2.26584</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.07177</t>
+          <t>2.2987</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22.93983</t>
+          <t>22.7214</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.93532</t>
+          <t>22.7192</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>22.87124</t>
+          <t>22.7341</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>22.92823</t>
+          <t>22.7013</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.764174</t>
+          <t>2023-09-22 10:42:29.882097</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.698143</v>
+        <v>2.755966</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2.32554</t>
+          <t>2.27854</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.33006</t>
+          <t>2.2808</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.38041</t>
+          <t>2.26584</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.33747</t>
+          <t>2.2987</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22.6744</t>
+          <t>22.7214</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.66994</t>
+          <t>22.7192</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>22.61956</t>
+          <t>22.7341</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>22.66253</t>
+          <t>22.7013</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.860167</t>
+          <t>2023-09-22 10:42:29.979361</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.794136</v>
+        <v>2.85323</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2.32554</t>
+          <t>2.53092</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.33006</t>
+          <t>2.53284</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.38041</t>
+          <t>2.51787</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.33747</t>
+          <t>2.5511</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22.6744</t>
+          <t>22.46902</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.66994</t>
+          <t>22.46716</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>22.61956</t>
+          <t>22.48207</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>22.66253</t>
+          <t>22.4489</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:44.956951</t>
+          <t>2023-09-22 10:42:30.076690</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.89092</v>
+        <v>2.950559</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2.58967</t>
+          <t>2.53092</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.59433</t>
+          <t>2.53284</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.38041</t>
+          <t>2.51787</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.60148</t>
+          <t>2.5511</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22.41027</t>
+          <t>22.46902</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.40567</t>
+          <t>22.46716</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>22.61956</t>
+          <t>22.48207</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>22.39852</t>
+          <t>22.4489</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.052985</t>
+          <t>2023-09-22 10:42:30.173810</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.986954</v>
+        <v>3.047679</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.58967</t>
+          <t>2.53092</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.59433</t>
+          <t>2.53284</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.64443</t>
+          <t>2.51787</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.60148</t>
+          <t>2.5511</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22.41027</t>
+          <t>22.46902</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.40567</t>
+          <t>22.46716</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>22.35554</t>
+          <t>22.48207</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22.39852</t>
+          <t>22.4489</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.149223</t>
+          <t>2023-09-22 10:42:30.270372</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.083192</v>
+        <v>3.144241</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.58967</t>
+          <t>2.79569</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.59433</t>
+          <t>2.7979</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.64443</t>
+          <t>2.78226</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.60148</t>
+          <t>2.81566</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22.41027</t>
+          <t>22.20425</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.40567</t>
+          <t>22.2021</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>22.35554</t>
+          <t>22.21768</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>22.39852</t>
+          <t>22.18434</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.245907</t>
+          <t>2023-09-22 10:42:30.367098</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.179876</v>
+        <v>3.240967</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.85461</t>
+          <t>2.79569</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.85904</t>
+          <t>2.7979</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.89380</t>
+          <t>2.78226</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.8662</t>
+          <t>2.81566</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22.14533</t>
+          <t>22.20425</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22.14096</t>
+          <t>22.2021</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>22.10617</t>
+          <t>22.21768</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>22.1338</t>
+          <t>22.18434</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.341748</t>
+          <t>2023-09-22 10:42:30.463834</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.275717</v>
+        <v>3.337703</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.85461</t>
+          <t>2.79569</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.85904</t>
+          <t>2.7979</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.89380</t>
+          <t>3.03470</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.8662</t>
+          <t>2.81566</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22.14533</t>
+          <t>22.20425</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22.14096</t>
+          <t>22.2021</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>22.10617</t>
+          <t>21.96524</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>22.1338</t>
+          <t>22.18434</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.437666</t>
+          <t>2023-09-22 10:42:30.560253</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.371635</v>
+        <v>3.434122</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.85461</t>
+          <t>3.04769</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.85904</t>
+          <t>3.04966</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.89380</t>
+          <t>3.03470</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.8662</t>
+          <t>3.0678</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22.14533</t>
+          <t>21.95225</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.14096</t>
+          <t>21.95034</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22.10617</t>
+          <t>21.96524</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>22.1338</t>
+          <t>21.9322</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.533573</t>
+          <t>2023-09-22 10:42:30.656693</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.467542</v>
+        <v>3.530562</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.10416</t>
+          <t>3.04769</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.1083</t>
+          <t>3.04966</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.15819</t>
+          <t>3.03470</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.11553</t>
+          <t>3.0678</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21.89578</t>
+          <t>21.95225</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>21.8917</t>
+          <t>21.95034</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>21.84178</t>
+          <t>21.96524</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>21.88447</t>
+          <t>21.9322</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.629529</t>
+          <t>2023-09-22 10:42:30.753958</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.563498</v>
+        <v>3.627827</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.10416</t>
+          <t>3.29776</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.1083</t>
+          <t>3.29976</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.15819</t>
+          <t>3.29984</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.11553</t>
+          <t>3.31782</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21.89578</t>
+          <t>21.70218</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>21.8917</t>
+          <t>21.70024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>21.84178</t>
+          <t>21.7001</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>21.88447</t>
+          <t>21.68218</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.725727</t>
+          <t>2023-09-22 10:42:30.850190</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.659696</v>
+        <v>3.724059</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3.36921</t>
+          <t>3.29776</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.3737</t>
+          <t>3.29976</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.15819</t>
+          <t>3.29984</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.3807</t>
+          <t>3.31782</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21.63073</t>
+          <t>21.70218</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.6263</t>
+          <t>21.70024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>21.84178</t>
+          <t>21.7001</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>21.6193</t>
+          <t>21.68218</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.821702</t>
+          <t>2023-09-22 10:42:30.946510</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.755671</v>
+        <v>3.820379</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3.36921</t>
+          <t>3.29776</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.3737</t>
+          <t>3.29976</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.40889</t>
+          <t>3.29984</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.3807</t>
+          <t>3.31782</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21.63073</t>
+          <t>21.70218</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21.6263</t>
+          <t>21.70024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>21.59108</t>
+          <t>21.7001</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>21.6193</t>
+          <t>21.68218</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:45.919431</t>
+          <t>2023-09-22 10:42:31.043230</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.8534</v>
+        <v>3.917099</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.36921</t>
+          <t>3.54840</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.3737</t>
+          <t>3.55046</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.40889</t>
+          <t>3.55081</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.3807</t>
+          <t>3.56814</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21.63073</t>
+          <t>21.45154</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>21.6263</t>
+          <t>21.44954</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>21.59108</t>
+          <t>21.44913</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>21.6193</t>
+          <t>21.43186</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.015656</t>
+          <t>2023-09-22 10:42:31.139485</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.949625</v>
+        <v>4.013354</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.62101</t>
+          <t>3.54840</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.62539</t>
+          <t>3.55046</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.66029</t>
+          <t>3.55081</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.63274</t>
+          <t>3.56814</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21.37893</t>
+          <t>21.45154</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>21.37461</t>
+          <t>21.44954</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>21.33968</t>
+          <t>21.44913</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>21.36726</t>
+          <t>21.43186</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.111606</t>
+          <t>2023-09-22 10:42:31.236596</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.045575</v>
+        <v>4.110465</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.62101</t>
+          <t>3.80397</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.62539</t>
+          <t>3.8066</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.66029</t>
+          <t>3.80460</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.63274</t>
+          <t>3.82446</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21.37893</t>
+          <t>21.19597</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>21.37461</t>
+          <t>21.1934</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>21.33968</t>
+          <t>21.19534</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>21.36726</t>
+          <t>21.17554</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.208275</t>
+          <t>2023-09-22 10:42:31.333549</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.142244</v>
+        <v>4.207418</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3.62101</t>
+          <t>3.80397</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.62539</t>
+          <t>3.8066</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.66029</t>
+          <t>3.80460</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.63274</t>
+          <t>3.82446</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21.37893</t>
+          <t>21.19597</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>21.37461</t>
+          <t>21.1934</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>21.33968</t>
+          <t>21.19534</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>21.36726</t>
+          <t>21.17554</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.304731</t>
+          <t>2023-09-22 10:42:31.431436</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.2387</v>
+        <v>4.305305</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.87444</t>
+          <t>3.80397</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.87918</t>
+          <t>3.8066</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.91301</t>
+          <t>3.80460</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.8861</t>
+          <t>3.82446</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21.1255</t>
+          <t>21.19597</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>21.12082</t>
+          <t>21.1934</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21.08696</t>
+          <t>21.19534</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>21.1139</t>
+          <t>21.17554</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.400975</t>
+          <t>2023-09-22 10:42:31.528303</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.334944</v>
+        <v>4.402172</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3.87444</t>
+          <t>4.05392</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.87918</t>
+          <t>4.07163</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.91301</t>
+          <t>4.05600</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.8861</t>
+          <t>4.07369</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21.1255</t>
+          <t>20.94602</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>21.12082</t>
+          <t>20.92837</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>21.08696</t>
+          <t>20.94394</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>21.1139</t>
+          <t>20.92631</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.497152</t>
+          <t>2023-09-22 10:42:31.625990</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.431121</v>
+        <v>4.499859</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.12514</t>
+          <t>4.05392</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.12997</t>
+          <t>4.07163</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.91301</t>
+          <t>4.05600</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.13686</t>
+          <t>4.07369</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20.8748</t>
+          <t>20.94602</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>20.87003</t>
+          <t>20.92837</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>21.08696</t>
+          <t>20.94394</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20.86314</t>
+          <t>20.92631</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.593385</t>
+          <t>2023-09-22 10:42:31.723928</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.527354</v>
+        <v>4.597797</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.12514</t>
+          <t>4.30636</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.12997</t>
+          <t>4.07163</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.16412</t>
+          <t>4.05600</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.13686</t>
+          <t>4.07369</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20.8748</t>
+          <t>20.69358</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>20.87003</t>
+          <t>20.92837</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20.83585</t>
+          <t>20.94394</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20.86314</t>
+          <t>20.92631</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.689465</t>
+          <t>2023-09-22 10:42:31.820185</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.623434</v>
+        <v>4.694054</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.12514</t>
+          <t>4.30636</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.12997</t>
+          <t>4.33802</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.16412</t>
+          <t>4.30844</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.13686</t>
+          <t>4.32607</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.8748</t>
+          <t>20.69358</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>20.87003</t>
+          <t>20.66198</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20.83585</t>
+          <t>20.6915</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20.86314</t>
+          <t>20.67393</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.785595</t>
+          <t>2023-09-22 10:42:31.917114</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.719564</v>
+        <v>4.790983</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.38984</t>
+          <t>4.30636</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.3944</t>
+          <t>4.33802</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.42784</t>
+          <t>4.30844</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.4015</t>
+          <t>4.32607</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20.6101</t>
+          <t>20.69358</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20.6056</t>
+          <t>20.66198</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20.57213</t>
+          <t>20.6915</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20.5985</t>
+          <t>20.67393</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.882502</t>
+          <t>2023-09-22 10:42:32.013969</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.816471</v>
+        <v>4.887838</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.38984</t>
+          <t>4.57280</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.3944</t>
+          <t>4.5921</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.42784</t>
+          <t>4.57451</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4.4015</t>
+          <t>4.5925</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20.6101</t>
+          <t>20.42714</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20.6056</t>
+          <t>20.4079</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20.57213</t>
+          <t>20.42543</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20.5985</t>
+          <t>20.4075</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:46.979234</t>
+          <t>2023-09-22 10:42:32.111433</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.913203</v>
+        <v>4.985302</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.38984</t>
+          <t>4.57280</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.3944</t>
+          <t>4.5921</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.42784</t>
+          <t>4.57451</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.4015</t>
+          <t>4.5925</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20.6101</t>
+          <t>20.42714</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>20.6056</t>
+          <t>20.4079</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20.57213</t>
+          <t>20.42543</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>20.5985</t>
+          <t>20.4075</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.075264</t>
+          <t>2023-09-22 10:42:32.208024</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.009233</v>
+        <v>5.081893</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.64090</t>
+          <t>4.57280</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.64535</t>
+          <t>4.5921</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.67915</t>
+          <t>4.57451</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4.65268</t>
+          <t>4.5925</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20.35904</t>
+          <t>20.42714</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20.35465</t>
+          <t>20.4079</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20.32082</t>
+          <t>20.42543</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20.34732</t>
+          <t>20.4075</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.171521</t>
+          <t>2023-09-22 10:42:32.304625</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.10549</v>
+        <v>5.178494</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.64090</t>
+          <t>4.82314</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.64535</t>
+          <t>4.85713</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.67915</t>
+          <t>4.82518</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4.65268</t>
+          <t>4.84284</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20.35904</t>
+          <t>20.1768</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>20.35465</t>
+          <t>20.14287</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20.32082</t>
+          <t>20.17476</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20.34732</t>
+          <t>20.15716</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.268439</t>
+          <t>2023-09-22 10:42:32.401893</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.202408</v>
+        <v>5.275762</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.89128</t>
+          <t>4.82314</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.8968</t>
+          <t>4.85713</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4.67915</t>
+          <t>4.82518</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.90294</t>
+          <t>4.84284</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20.10866</t>
+          <t>20.1768</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>20.1032</t>
+          <t>20.14287</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20.32082</t>
+          <t>20.17476</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>20.09706</t>
+          <t>20.15716</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.364468</t>
+          <t>2023-09-22 10:42:32.498703</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.298437</v>
+        <v>5.372572</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.89128</t>
+          <t>5.07516</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.8968</t>
+          <t>4.85713</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.93165</t>
+          <t>5.07727</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4.90294</t>
+          <t>4.84284</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20.10866</t>
+          <t>19.92478</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>20.1032</t>
+          <t>20.14287</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>20.06832</t>
+          <t>19.92267</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20.09706</t>
+          <t>20.15716</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.460412</t>
+          <t>2023-09-22 10:42:32.595225</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.394381</v>
+        <v>5.469094</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.89128</t>
+          <t>5.07516</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.8968</t>
+          <t>5.10922</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.93165</t>
+          <t>5.07727</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4.90294</t>
+          <t>5.0953</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20.10866</t>
+          <t>19.92478</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20.1032</t>
+          <t>19.89078</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>20.06832</t>
+          <t>19.92267</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20.09706</t>
+          <t>19.9047</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.557014</t>
+          <t>2023-09-22 10:42:32.691860</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.490983</v>
+        <v>5.565729</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5.14239</t>
+          <t>5.07516</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5.14687</t>
+          <t>5.10922</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.19633</t>
+          <t>5.07727</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5.15362</t>
+          <t>5.0953</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19.85755</t>
+          <t>19.92478</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>19.85313</t>
+          <t>19.89078</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19.80364</t>
+          <t>19.92267</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>19.84638</t>
+          <t>19.9047</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.653760</t>
+          <t>2023-09-22 10:42:32.788319</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.587729</v>
+        <v>5.662188</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5.14239</t>
+          <t>5.32659</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.14687</t>
+          <t>5.35906</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.19633</t>
+          <t>5.32899</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5.15362</t>
+          <t>5.34667</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19.85755</t>
+          <t>19.67335</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19.85313</t>
+          <t>19.64094</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19.80364</t>
+          <t>19.67095</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19.84638</t>
+          <t>19.65333</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.750570</t>
+          <t>2023-09-22 10:42:32.886086</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5.684539</v>
+        <v>5.759955</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5.39374</t>
+          <t>5.32659</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5.3982</t>
+          <t>5.35906</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5.19633</t>
+          <t>5.32899</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5.40608</t>
+          <t>5.34667</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19.6062</t>
+          <t>19.67335</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>19.6018</t>
+          <t>19.64094</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19.80364</t>
+          <t>19.67095</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>19.59392</t>
+          <t>19.65333</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.847061</t>
+          <t>2023-09-22 10:42:32.983120</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5.78103</v>
+        <v>5.856989</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5.39374</t>
+          <t>5.32659</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5.3982</t>
+          <t>5.35906</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.44909</t>
+          <t>5.32899</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.40608</t>
+          <t>5.34667</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19.6062</t>
+          <t>19.67335</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>19.6018</t>
+          <t>19.64094</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>19.55088</t>
+          <t>19.67095</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19.59392</t>
+          <t>19.65333</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:47.943183</t>
+          <t>2023-09-22 10:42:33.079775</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.877152</v>
+        <v>5.953644</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5.39374</t>
+          <t>5.58914</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5.3982</t>
+          <t>5.6227</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5.44909</t>
+          <t>5.59161</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.40608</t>
+          <t>5.60933</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19.6062</t>
+          <t>19.4108</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>19.6018</t>
+          <t>19.3773</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>19.55088</t>
+          <t>19.40833</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>19.59392</t>
+          <t>19.39067</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.039392</t>
+          <t>2023-09-22 10:42:33.176230</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.973361</v>
+        <v>6.050099</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5.65922</t>
+          <t>5.58914</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5.664</t>
+          <t>5.6227</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.44909</t>
+          <t>5.59161</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5.67105</t>
+          <t>5.60933</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19.34072</t>
+          <t>19.4108</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>19.336</t>
+          <t>19.3773</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>19.55088</t>
+          <t>19.40833</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>19.32895</t>
+          <t>19.39067</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.135590</t>
+          <t>2023-09-22 10:42:33.272455</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6.069559</v>
+        <v>6.146324</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5.65922</t>
+          <t>5.85384</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5.664</t>
+          <t>5.6227</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.71403</t>
+          <t>5.59161</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.67105</t>
+          <t>5.8741</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19.34072</t>
+          <t>19.1461</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>19.336</t>
+          <t>19.3773</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>19.28594</t>
+          <t>19.40833</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>19.32895</t>
+          <t>19.1259</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.232167</t>
+          <t>2023-09-22 10:42:33.368972</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.166136</v>
+        <v>6.242841</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5.65922</t>
+          <t>5.85384</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5.664</t>
+          <t>5.88813</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.71403</t>
+          <t>5.85624</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5.67105</t>
+          <t>5.8741</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19.34072</t>
+          <t>19.1461</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>19.336</t>
+          <t>19.11187</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19.28594</t>
+          <t>19.1437</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>19.32895</t>
+          <t>19.1259</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.328444</t>
+          <t>2023-09-22 10:42:33.465502</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.262413</v>
+        <v>6.339371</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5.91124</t>
+          <t>5.85384</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.91568</t>
+          <t>5.88813</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.96687</t>
+          <t>5.85624</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5.9225</t>
+          <t>5.8741</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19.0887</t>
+          <t>19.1461</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>19.08432</t>
+          <t>19.11187</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19.0331</t>
+          <t>19.1437</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>19.0775</t>
+          <t>19.1259</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.425168</t>
+          <t>2023-09-22 10:42:33.562434</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.359137</v>
+        <v>6.436303</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5.91124</t>
+          <t>6.11921</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5.91568</t>
+          <t>5.88813</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5.96687</t>
+          <t>6.12104</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5.9225</t>
+          <t>6.13915</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19.0887</t>
+          <t>18.88073</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>19.08432</t>
+          <t>19.11187</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>19.0331</t>
+          <t>18.8789</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>19.0775</t>
+          <t>18.86085</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.521774</t>
+          <t>2023-09-22 10:42:33.658943</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.455743</v>
+        <v>6.532812</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6.16394</t>
+          <t>6.11921</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6.1685</t>
+          <t>6.1518</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.96687</t>
+          <t>6.12104</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6.17524</t>
+          <t>6.13915</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18.836</t>
+          <t>18.88073</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>18.8315</t>
+          <t>18.8482</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>19.0331</t>
+          <t>18.8789</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>18.82476</t>
+          <t>18.86085</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.617987</t>
+          <t>2023-09-22 10:42:33.755480</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6.551956</v>
+        <v>6.629349</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6.16394</t>
+          <t>6.11921</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.1685</t>
+          <t>6.1518</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6.21899</t>
+          <t>6.12104</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6.17524</t>
+          <t>6.13915</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.836</t>
+          <t>18.88073</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>18.8315</t>
+          <t>18.8482</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18.78098</t>
+          <t>18.8789</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>18.82476</t>
+          <t>18.86085</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.714123</t>
+          <t>2023-09-22 10:42:33.852502</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.648092</v>
+        <v>6.726371</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6.16394</t>
+          <t>6.38371</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6.1685</t>
+          <t>6.4164</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6.21899</t>
+          <t>6.38564</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6.17524</t>
+          <t>6.40357</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18.836</t>
+          <t>18.61623</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>18.8315</t>
+          <t>18.5836</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>18.78098</t>
+          <t>18.6143</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>18.82476</t>
+          <t>18.59643</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.810610</t>
+          <t>2023-09-22 10:42:33.949112</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.744579</v>
+        <v>6.822981</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6.41477</t>
+          <t>6.38371</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.41922</t>
+          <t>6.4164</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6.21899</t>
+          <t>6.38564</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6.42626</t>
+          <t>6.40357</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18.58517</t>
+          <t>18.61623</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>18.58078</t>
+          <t>18.5836</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>18.78098</t>
+          <t>18.6143</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>18.57374</t>
+          <t>18.59643</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:48.906601</t>
+          <t>2023-09-22 10:42:34.045816</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.84057</v>
+        <v>6.919685</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6.41477</t>
+          <t>6.38371</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6.41922</t>
+          <t>6.4164</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6.46964</t>
+          <t>6.38564</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6.42626</t>
+          <t>6.40357</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18.58517</t>
+          <t>18.61623</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>18.58078</t>
+          <t>18.5836</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>18.53033</t>
+          <t>18.6143</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>18.57374</t>
+          <t>18.59643</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.003542</t>
+          <t>2023-09-22 10:42:34.142452</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6.937511</v>
+        <v>7.016321</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6.41477</t>
+          <t>6.64848</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.41922</t>
+          <t>6.68107</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6.46964</t>
+          <t>6.65042</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6.42626</t>
+          <t>6.66845</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18.58517</t>
+          <t>18.35146</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>18.58078</t>
+          <t>18.31893</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>18.53033</t>
+          <t>18.34952</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>18.57374</t>
+          <t>18.33155</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.100300</t>
+          <t>2023-09-22 10:42:34.238811</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7.034269</v>
+        <v>7.11268</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>6.66484</t>
+          <t>6.64848</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6.6695</t>
+          <t>6.68107</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6.71993</t>
+          <t>6.65042</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6.6767</t>
+          <t>6.66845</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18.3351</t>
+          <t>18.35146</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>18.3305</t>
+          <t>18.31893</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>18.28004</t>
+          <t>18.34952</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>18.3233</t>
+          <t>18.33155</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.196537</t>
+          <t>2023-09-22 10:42:34.335491</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.130506</v>
+        <v>7.20936</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6.66484</t>
+          <t>6.91417</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.6695</t>
+          <t>6.68107</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6.71993</t>
+          <t>6.91584</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>6.6767</t>
+          <t>6.66845</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18.3351</t>
+          <t>18.08577</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>18.3305</t>
+          <t>18.31893</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18.28004</t>
+          <t>18.0841</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>18.3233</t>
+          <t>18.33155</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.293061</t>
+          <t>2023-09-22 10:42:34.433171</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7.22703</v>
+        <v>7.30704</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6.91624</t>
+          <t>6.91417</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6.9206</t>
+          <t>6.93177</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.71993</t>
+          <t>6.91584</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6.92775</t>
+          <t>6.93385</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18.0837</t>
+          <t>18.08577</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>18.0794</t>
+          <t>18.06823</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>18.28004</t>
+          <t>18.0841</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>18.07225</t>
+          <t>18.06615</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.389266</t>
+          <t>2023-09-22 10:42:34.529646</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.323235</v>
+        <v>7.403515</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>6.91624</t>
+          <t>6.91417</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.9206</t>
+          <t>6.93177</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6.97139</t>
+          <t>6.91584</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6.92775</t>
+          <t>6.93385</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18.0837</t>
+          <t>18.08577</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>18.0794</t>
+          <t>18.06823</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>18.02858</t>
+          <t>18.0841</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>18.07225</t>
+          <t>18.06615</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.485208</t>
+          <t>2023-09-22 10:42:34.626308</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.419177</v>
+        <v>7.500177</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>6.91624</t>
+          <t>7.17839</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6.9206</t>
+          <t>7.19486</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6.97139</t>
+          <t>7.18084</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6.92775</t>
+          <t>7.19848</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18.0837</t>
+          <t>17.82155</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>18.0794</t>
+          <t>17.80514</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>18.02858</t>
+          <t>17.8191</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>18.07225</t>
+          <t>17.80152</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.581557</t>
+          <t>2023-09-22 10:42:34.723338</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.515526</v>
+        <v>7.597207</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7.16791</t>
+          <t>7.17839</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7.1723</t>
+          <t>7.19486</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>7.22310</t>
+          <t>7.18084</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.1794</t>
+          <t>7.19848</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>17.83203</t>
+          <t>17.82155</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>17.8277</t>
+          <t>17.80514</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>17.77687</t>
+          <t>17.8191</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>17.8206</t>
+          <t>17.80152</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.677511</t>
+          <t>2023-09-22 10:42:34.820183</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7.61148</v>
+        <v>7.694052</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7.16791</t>
+          <t>7.17839</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.1723</t>
+          <t>7.19486</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7.22310</t>
+          <t>7.18084</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7.1794</t>
+          <t>7.19848</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>17.83203</t>
+          <t>17.82155</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>17.8277</t>
+          <t>17.80514</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>17.77687</t>
+          <t>17.8191</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>17.8206</t>
+          <t>17.80152</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.773754</t>
+          <t>2023-09-22 10:42:34.916918</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.707723</v>
+        <v>7.790787</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.41862</t>
+          <t>7.42844</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.423</t>
+          <t>7.44553</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7.22310</t>
+          <t>7.43057</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>7.42988</t>
+          <t>7.4636</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>17.58132</t>
+          <t>17.5715</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17.577</t>
+          <t>17.55447</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17.77687</t>
+          <t>17.56937</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>17.57012</t>
+          <t>17.5364</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.869522</t>
+          <t>2023-09-22 10:42:35.013791</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7.803491</v>
+        <v>7.88766</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7.41862</t>
+          <t>7.42844</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.423</t>
+          <t>7.44553</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7.47347</t>
+          <t>7.43057</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7.42988</t>
+          <t>7.4636</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>17.58132</t>
+          <t>17.5715</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>17.577</t>
+          <t>17.55447</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>17.5265</t>
+          <t>17.56937</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>17.57012</t>
+          <t>17.5364</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:49.965286</t>
+          <t>2023-09-22 10:42:35.110372</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.899255</v>
+        <v>7.984241</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.41862</t>
+          <t>7.67982</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.423</t>
+          <t>7.44553</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7.47347</t>
+          <t>7.68231</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7.42988</t>
+          <t>7.4636</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17.58132</t>
+          <t>17.32012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>17.577</t>
+          <t>17.55447</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>17.5265</t>
+          <t>17.31763</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>17.57012</t>
+          <t>17.5364</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.061513</t>
+          <t>2023-09-22 10:42:35.207027</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.995482</v>
+        <v>8.080895999999999</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.67071</t>
+          <t>7.67982</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.67517</t>
+          <t>7.69762</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7.72417</t>
+          <t>7.68231</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>7.68228</t>
+          <t>7.71528</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>17.32923</t>
+          <t>17.32012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>17.32483</t>
+          <t>17.30238</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>17.2758</t>
+          <t>17.31763</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>17.31772</t>
+          <t>17.28472</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.158207</t>
+          <t>2023-09-22 10:42:35.303505</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8.092176</v>
+        <v>8.177374</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.67071</t>
+          <t>7.67982</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7.67517</t>
+          <t>7.69762</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7.72417</t>
+          <t>7.68231</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7.68228</t>
+          <t>7.71528</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>17.32923</t>
+          <t>17.32012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>17.32483</t>
+          <t>17.30238</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>17.2758</t>
+          <t>17.31763</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>17.31772</t>
+          <t>17.28472</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.254493</t>
+          <t>2023-09-22 10:42:35.400590</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8.188461999999999</v>
+        <v>8.274459</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7.67071</t>
+          <t>7.94450</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7.67517</t>
+          <t>7.96132</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>7.72417</t>
+          <t>7.94654</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7.68228</t>
+          <t>7.97932</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>17.32923</t>
+          <t>17.05544</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>17.32483</t>
+          <t>17.03868</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>17.2758</t>
+          <t>17.0534</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>17.31772</t>
+          <t>17.02068</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.351382</t>
+          <t>2023-09-22 10:42:35.497802</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8.285351</v>
+        <v>8.371670999999999</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.92170</t>
+          <t>7.94450</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7.92688</t>
+          <t>7.96132</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7.97527</t>
+          <t>7.94654</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7.934</t>
+          <t>7.97932</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17.07824</t>
+          <t>17.05544</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17.07312</t>
+          <t>17.03868</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>17.0247</t>
+          <t>17.0534</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>17.066</t>
+          <t>17.02068</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.447664</t>
+          <t>2023-09-22 10:42:35.594121</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8.381633000000001</v>
+        <v>8.46799</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.92170</t>
+          <t>7.94450</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7.92688</t>
+          <t>7.96132</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>7.97527</t>
+          <t>7.94654</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>7.934</t>
+          <t>7.97932</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17.07824</t>
+          <t>17.05544</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>17.07312</t>
+          <t>17.03868</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>17.0247</t>
+          <t>17.0534</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>17.066</t>
+          <t>17.02068</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.544300</t>
+          <t>2023-09-22 10:42:35.690423</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>8.478268999999999</v>
+        <v>8.564292</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8.17127</t>
+          <t>8.20852</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>8.1758</t>
+          <t>8.22643</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.97527</t>
+          <t>8.21092</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8.1987</t>
+          <t>8.2444</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16.82867</t>
+          <t>16.79142</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16.8242</t>
+          <t>16.77357</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>17.0247</t>
+          <t>16.78902</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>16.8013</t>
+          <t>16.7556</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.640456</t>
+          <t>2023-09-22 10:42:35.786929</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8.574425</v>
+        <v>8.660798</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.17127</t>
+          <t>8.20852</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>8.1758</t>
+          <t>8.22643</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8.22594</t>
+          <t>8.21092</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8.1987</t>
+          <t>8.2444</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16.82867</t>
+          <t>16.79142</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16.8242</t>
+          <t>16.77357</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>16.77403</t>
+          <t>16.78902</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>16.8013</t>
+          <t>16.7556</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.736412</t>
+          <t>2023-09-22 10:42:35.884162</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8.670381000000001</v>
+        <v>8.758031000000001</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8.17127</t>
+          <t>8.20852</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>8.1758</t>
+          <t>8.22643</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8.22594</t>
+          <t>8.21092</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8.1987</t>
+          <t>8.2444</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16.82867</t>
+          <t>16.79142</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16.8242</t>
+          <t>16.77357</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16.77403</t>
+          <t>16.78902</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>16.8013</t>
+          <t>16.7556</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.832531</t>
+          <t>2023-09-22 10:42:35.981228</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8.766500000000001</v>
+        <v>8.855097000000001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8.43607</t>
+          <t>8.47364</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>8.44044</t>
+          <t>8.49065</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8.49102</t>
+          <t>8.47597</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8.46347</t>
+          <t>8.50882</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16.56387</t>
+          <t>16.5263</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16.55956</t>
+          <t>16.50935</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>16.50895</t>
+          <t>16.52397</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>16.53653</t>
+          <t>16.49118</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:50.928436</t>
+          <t>2023-09-22 10:42:36.078025</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8.862405000000001</v>
+        <v>8.951893999999999</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8.43607</t>
+          <t>8.47364</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>8.44044</t>
+          <t>8.49065</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8.49102</t>
+          <t>8.47597</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8.46347</t>
+          <t>8.50882</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16.56387</t>
+          <t>16.5263</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>16.55956</t>
+          <t>16.50935</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>16.50895</t>
+          <t>16.52397</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>16.53653</t>
+          <t>16.49118</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.024351</t>
+          <t>2023-09-22 10:42:36.174263</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.958320000000001</v>
+        <v>9.048132000000001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8.43607</t>
+          <t>8.73770</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>8.44044</t>
+          <t>8.49065</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8.49102</t>
+          <t>8.74004</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8.46347</t>
+          <t>8.50882</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16.56387</t>
+          <t>16.26224</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>16.55956</t>
+          <t>16.50935</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>16.50895</t>
+          <t>16.2599</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>16.53653</t>
+          <t>16.49118</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.120395</t>
+          <t>2023-09-22 10:42:36.271083</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9.054364</v>
+        <v>9.144952</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>8.68677</t>
+          <t>8.73770</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>8.6913</t>
+          <t>8.75495</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>8.74245</t>
+          <t>8.74004</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>8.71452</t>
+          <t>8.77316</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16.31317</t>
+          <t>16.26224</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>16.3087</t>
+          <t>16.24505</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>16.25752</t>
+          <t>16.2599</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>16.28548</t>
+          <t>16.22684</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.216385</t>
+          <t>2023-09-22 10:42:36.368228</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9.150354</v>
+        <v>9.242096999999999</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8.68677</t>
+          <t>8.73770</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.6913</t>
+          <t>8.75495</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>8.74245</t>
+          <t>8.74004</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8.71452</t>
+          <t>8.77316</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16.31317</t>
+          <t>16.26224</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16.3087</t>
+          <t>16.24505</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16.25752</t>
+          <t>16.2599</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>16.28548</t>
+          <t>16.22684</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.312495</t>
+          <t>2023-09-22 10:42:36.465123</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.246464</v>
+        <v>9.338991999999999</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8.95209</t>
+          <t>9.00238</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.9562</t>
+          <t>9.01978</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>8.74245</t>
+          <t>9.00444</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.71452</t>
+          <t>9.03743</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16.04785</t>
+          <t>15.99756</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16.0438</t>
+          <t>15.98022</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>16.25752</t>
+          <t>15.9955</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>16.28548</t>
+          <t>15.96257</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.408529</t>
+          <t>2023-09-22 10:42:36.562240</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9.342498000000001</v>
+        <v>9.436109</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8.95209</t>
+          <t>9.00238</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8.9562</t>
+          <t>9.01978</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>9.00717</t>
+          <t>9.00444</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.9792</t>
+          <t>9.03743</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16.04785</t>
+          <t>15.99756</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>16.0438</t>
+          <t>15.98022</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>15.9928</t>
+          <t>15.9955</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>16.0208</t>
+          <t>15.96257</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.504846</t>
+          <t>2023-09-22 10:42:36.658521</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9.438815</v>
+        <v>9.532389999999999</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8.95209</t>
+          <t>9.00238</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>8.9562</t>
+          <t>9.01978</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>9.00717</t>
+          <t>9.00444</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>8.9792</t>
+          <t>9.03743</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16.04785</t>
+          <t>15.99756</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>16.0438</t>
+          <t>15.98022</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15.9928</t>
+          <t>15.9955</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>16.0208</t>
+          <t>15.96257</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.601549</t>
+          <t>2023-09-22 10:42:36.755346</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.535518</v>
+        <v>9.629215</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9.20284</t>
+          <t>9.26654</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>9.20707</t>
+          <t>9.2838</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>9.25857</t>
+          <t>9.26917</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>9.23025</t>
+          <t>9.3018</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15.7971</t>
+          <t>15.7334</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>15.79293</t>
+          <t>15.7162</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15.7414</t>
+          <t>15.73077</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15.76975</t>
+          <t>15.6982</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.697786</t>
+          <t>2023-09-22 10:42:36.851744</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9.631755</v>
+        <v>9.725612999999999</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9.20284</t>
+          <t>9.26654</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9.20707</t>
+          <t>9.2838</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>9.25857</t>
+          <t>9.26917</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>9.23025</t>
+          <t>9.3018</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15.7971</t>
+          <t>15.7334</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>15.79293</t>
+          <t>15.7162</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>15.7414</t>
+          <t>15.73077</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>15.76975</t>
+          <t>15.6982</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.794415</t>
+          <t>2023-09-22 10:42:36.948224</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>9.728384</v>
+        <v>9.822093000000001</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9.20284</t>
+          <t>9.26654</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9.20707</t>
+          <t>9.2838</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>9.25857</t>
+          <t>9.26917</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>9.23025</t>
+          <t>9.3018</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15.7971</t>
+          <t>15.7334</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>15.79293</t>
+          <t>15.7162</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>15.7414</t>
+          <t>15.73077</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>15.76975</t>
+          <t>15.6982</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.890612</t>
+          <t>2023-09-22 10:42:37.044735</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.824581</v>
+        <v>9.918604</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>9.45424</t>
+          <t>9.53104</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9.45876</t>
+          <t>9.5488</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>9.50920</t>
+          <t>9.53344</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9.48203</t>
+          <t>9.56682</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15.5457</t>
+          <t>15.4689</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>15.54124</t>
+          <t>15.4512</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>15.49077</t>
+          <t>15.4665</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>15.51797</t>
+          <t>15.43318</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:51.986517</t>
+          <t>2023-09-22 10:42:37.141239</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9.920486</v>
+        <v>10.015108</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9.45424</t>
+          <t>9.53104</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9.45876</t>
+          <t>9.5488</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>9.50920</t>
+          <t>9.53344</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9.48203</t>
+          <t>9.56682</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15.5457</t>
+          <t>15.4689</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>15.54124</t>
+          <t>15.4512</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>15.49077</t>
+          <t>15.4665</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>15.51797</t>
+          <t>15.43318</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.082495</t>
+          <t>2023-09-22 10:42:37.238086</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10.016464</v>
+        <v>10.111955</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9.70601</t>
+          <t>9.78169</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9.71088</t>
+          <t>9.79958</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>9.50920</t>
+          <t>9.78412</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>9.73334</t>
+          <t>9.81758</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15.29393</t>
+          <t>15.21825</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>15.28912</t>
+          <t>15.20042</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>15.49077</t>
+          <t>15.21582</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>15.26666</t>
+          <t>15.18242</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.178584</t>
+          <t>2023-09-22 10:42:37.334324</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.112553</v>
+        <v>10.208193</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9.70601</t>
+          <t>9.78169</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9.71088</t>
+          <t>9.79958</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>9.76132</t>
+          <t>9.78412</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>9.73334</t>
+          <t>9.81758</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15.29393</t>
+          <t>15.21825</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>15.28912</t>
+          <t>15.20042</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>15.23865</t>
+          <t>15.21582</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>15.26666</t>
+          <t>15.18242</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.274395</t>
+          <t>2023-09-22 10:42:37.430921</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10.208364</v>
+        <v>10.30479</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9.70601</t>
+          <t>9.78169</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9.71088</t>
+          <t>9.79958</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>9.76132</t>
+          <t>9.78412</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>9.73334</t>
+          <t>9.81758</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15.29393</t>
+          <t>15.21825</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>15.28912</t>
+          <t>15.20042</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>15.23865</t>
+          <t>15.21582</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>15.26666</t>
+          <t>15.18242</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.371541</t>
+          <t>2023-09-22 10:42:37.527479</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10.30551</v>
+        <v>10.401348</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>9.97142</t>
+          <t>10.04637</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>9.9759</t>
+          <t>10.06388</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10.02704</t>
+          <t>10.04845</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9.9987</t>
+          <t>10.08162</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15.02852</t>
+          <t>14.95357</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>15.0241</t>
+          <t>14.93612</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>14.97293</t>
+          <t>14.95149</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>15.0013</t>
+          <t>14.91838</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.467988</t>
+          <t>2023-09-22 10:42:37.624254</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10.401957</v>
+        <v>10.498123</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9.97142</t>
+          <t>10.04637</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>9.9759</t>
+          <t>10.06388</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10.02704</t>
+          <t>10.04845</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9.9987</t>
+          <t>10.08162</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15.02852</t>
+          <t>14.95357</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>15.0241</t>
+          <t>14.93612</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>14.97293</t>
+          <t>14.95149</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>15.0013</t>
+          <t>14.91838</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.564452</t>
+          <t>2023-09-22 10:42:37.720515</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10.498421</v>
+        <v>10.594384</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9.97142</t>
+          <t>10.04637</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>9.9759</t>
+          <t>10.06388</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10.02704</t>
+          <t>10.04845</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>9.9987</t>
+          <t>10.08162</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15.02852</t>
+          <t>14.95357</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>15.0241</t>
+          <t>14.93612</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>14.97293</t>
+          <t>14.95149</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>15.0013</t>
+          <t>14.91838</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.660517</t>
+          <t>2023-09-22 10:42:37.817007</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>10.594486</v>
+        <v>10.690876</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10.23621</t>
+          <t>10.31151</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10.24056</t>
+          <t>10.31386</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10.29001</t>
+          <t>10.31389</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10.263</t>
+          <t>10.33163</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14.76373</t>
+          <t>14.68843</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>14.75944</t>
+          <t>14.68614</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>14.70996</t>
+          <t>14.68605</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>14.737</t>
+          <t>14.66837</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.756581</t>
+          <t>2023-09-22 10:42:37.913891</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>10.69055</v>
+        <v>10.78776</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10.23621</t>
+          <t>10.31151</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10.24056</t>
+          <t>10.31386</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10.29001</t>
+          <t>10.31389</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10.263</t>
+          <t>10.33163</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14.76373</t>
+          <t>14.68843</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>14.75944</t>
+          <t>14.68614</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>14.70996</t>
+          <t>14.68605</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>14.737</t>
+          <t>14.66837</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.853425</t>
+          <t>2023-09-22 10:42:38.010332</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>10.787394</v>
+        <v>10.884201</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10.50121</t>
+          <t>10.57594</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10.5053</t>
+          <t>10.57782</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>10.29001</t>
+          <t>10.57790</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10.263</t>
+          <t>10.59573</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14.49873</t>
+          <t>14.424</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>14.4947</t>
+          <t>14.42218</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>14.70996</t>
+          <t>14.42204</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>14.737</t>
+          <t>14.40427</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:52.949561</t>
+          <t>2023-09-22 10:42:38.106852</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>10.88353</v>
+        <v>10.980721</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10.50121</t>
+          <t>10.57594</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10.5053</t>
+          <t>10.57782</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>10.55400</t>
+          <t>10.57790</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10.5271</t>
+          <t>10.59573</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14.49873</t>
+          <t>14.424</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>14.4947</t>
+          <t>14.42218</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>14.44597</t>
+          <t>14.42204</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>14.4729</t>
+          <t>14.40427</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.045762</t>
+          <t>2023-09-22 10:42:38.204212</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10.979731</v>
+        <v>11.078081</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10.50121</t>
+          <t>10.57594</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10.5053</t>
+          <t>10.57782</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>10.55400</t>
+          <t>10.57790</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10.5271</t>
+          <t>10.59573</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14.49873</t>
+          <t>14.424</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>14.4947</t>
+          <t>14.42218</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>14.44597</t>
+          <t>14.42204</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>14.4729</t>
+          <t>14.40427</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.142366</t>
+          <t>2023-09-22 10:42:38.301539</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>11.076335</v>
+        <v>11.175408</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10.76304</t>
+          <t>10.83986</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10.76749</t>
+          <t>10.8426</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10.55400</t>
+          <t>10.84258</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10.79107</t>
+          <t>10.86024</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14.2369</t>
+          <t>14.16008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>14.23251</t>
+          <t>14.1574</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>14.44597</t>
+          <t>14.15736</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>14.20893</t>
+          <t>14.13976</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.238537</t>
+          <t>2023-09-22 10:42:38.398449</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11.172506</v>
+        <v>11.272318</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10.76304</t>
+          <t>10.83986</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10.76749</t>
+          <t>10.8426</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10.81837</t>
+          <t>10.84258</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>10.79107</t>
+          <t>10.86024</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14.2369</t>
+          <t>14.16008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14.23251</t>
+          <t>14.1574</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>14.1816</t>
+          <t>14.15736</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>14.20893</t>
+          <t>14.13976</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.334686</t>
+          <t>2023-09-22 10:42:38.495516</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>11.268655</v>
+        <v>11.369385</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>10.76304</t>
+          <t>10.83986</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10.76749</t>
+          <t>10.8426</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10.81837</t>
+          <t>10.84258</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10.79107</t>
+          <t>10.86024</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14.2369</t>
+          <t>14.16008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>14.23251</t>
+          <t>14.1574</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>14.1816</t>
+          <t>14.15736</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>14.20893</t>
+          <t>14.13976</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.430741</t>
+          <t>2023-09-22 10:42:38.592477</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11.36471</v>
+        <v>11.466346</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>11.01717</t>
+          <t>11.10376</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>11.02126</t>
+          <t>11.1066</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>11.06909</t>
+          <t>11.10599</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>11.04186</t>
+          <t>11.124</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>13.98277</t>
+          <t>13.89618</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>13.97874</t>
+          <t>13.8934</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>13.93088</t>
+          <t>13.89395</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>13.95814</t>
+          <t>13.876</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.526761</t>
+          <t>2023-09-22 10:42:38.689293</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>11.46073</v>
+        <v>11.563162</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>11.01717</t>
+          <t>11.10376</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>11.02126</t>
+          <t>11.1066</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>11.06909</t>
+          <t>11.10599</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>11.04186</t>
+          <t>11.124</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>13.98277</t>
+          <t>13.89618</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>13.97874</t>
+          <t>13.8934</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>13.93088</t>
+          <t>13.89395</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>13.95814</t>
+          <t>13.876</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.624897</t>
+          <t>2023-09-22 10:42:38.786378</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11.558866</v>
+        <v>11.660247</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>11.01717</t>
+          <t>11.35484</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>11.02126</t>
+          <t>11.35698</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11.06909</t>
+          <t>11.35734</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11.04186</t>
+          <t>11.37507</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13.98277</t>
+          <t>13.6451</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>13.97874</t>
+          <t>13.64302</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>13.93088</t>
+          <t>13.6426</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>13.95814</t>
+          <t>13.62493</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.719095</t>
+          <t>2023-09-22 10:42:38.883078</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>11.653064</v>
+        <v>11.756947</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>11.28188</t>
+          <t>11.35484</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>11.2863</t>
+          <t>11.35698</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>11.32087</t>
+          <t>11.35734</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>11.29329</t>
+          <t>11.37507</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13.71806</t>
+          <t>13.6451</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>13.7137</t>
+          <t>13.64302</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>13.6791</t>
+          <t>13.6426</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>13.70671</t>
+          <t>13.62493</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.815914</t>
+          <t>2023-09-22 10:42:38.979600</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11.749883</v>
+        <v>11.853469</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>11.28188</t>
+          <t>11.35484</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>11.2863</t>
+          <t>11.35698</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>11.32087</t>
+          <t>11.35734</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>11.29329</t>
+          <t>11.37507</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13.71806</t>
+          <t>13.6451</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>13.7137</t>
+          <t>13.64302</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>13.6791</t>
+          <t>13.6426</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>13.70671</t>
+          <t>13.62493</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:53.912704</t>
+          <t>2023-09-22 10:42:39.076739</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>11.846673</v>
+        <v>11.950608</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>11.54456</t>
+          <t>11.62059</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>11.54897</t>
+          <t>11.62273</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>11.32087</t>
+          <t>11.62270</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>11.5559</t>
+          <t>11.63972</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13.45538</t>
+          <t>13.37935</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>13.45103</t>
+          <t>13.37727</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>13.6791</t>
+          <t>13.37724</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>13.4441</t>
+          <t>13.36028</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.009036</t>
+          <t>2023-09-22 10:42:39.173745</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>11.943005</v>
+        <v>12.047614</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>11.54456</t>
+          <t>11.62059</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.54897</t>
+          <t>11.62273</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>11.58317</t>
+          <t>11.62270</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>11.5559</t>
+          <t>11.63972</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13.45538</t>
+          <t>13.37935</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>13.45103</t>
+          <t>13.37727</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>13.4168</t>
+          <t>13.37724</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>13.4441</t>
+          <t>13.36028</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.105309</t>
+          <t>2023-09-22 10:42:39.270068</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12.039278</v>
+        <v>12.143937</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>11.54456</t>
+          <t>11.62059</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>11.54897</t>
+          <t>11.62273</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11.58317</t>
+          <t>11.62270</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>11.5559</t>
+          <t>11.63972</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13.45538</t>
+          <t>13.37935</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>13.45103</t>
+          <t>13.37727</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>13.4168</t>
+          <t>13.37724</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>13.4441</t>
+          <t>13.36028</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.201783</t>
+          <t>2023-09-22 10:42:39.367277</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>12.135752</v>
+        <v>12.241146</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>11.80864</t>
+          <t>11.87060</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>11.8131</t>
+          <t>11.87274</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11.84574</t>
+          <t>11.87306</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>11.82019</t>
+          <t>11.89083</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13.1913</t>
+          <t>13.12934</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>13.1869</t>
+          <t>13.12726</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>13.15423</t>
+          <t>13.12688</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>13.17981</t>
+          <t>13.10917</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.297922</t>
+          <t>2023-09-22 10:42:39.463992</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12.231891</v>
+        <v>12.337861</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>11.80864</t>
+          <t>11.87060</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>11.8131</t>
+          <t>11.87274</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>11.84574</t>
+          <t>11.87306</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>11.82019</t>
+          <t>11.89083</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13.1913</t>
+          <t>13.12934</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>13.1869</t>
+          <t>13.12726</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>13.15423</t>
+          <t>13.12688</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>13.17981</t>
+          <t>13.10917</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.393917</t>
+          <t>2023-09-22 10:42:39.560949</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>12.327886</v>
+        <v>12.434818</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>11.80864</t>
+          <t>12.12170</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>11.8131</t>
+          <t>12.12416</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>11.84574</t>
+          <t>12.12404</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>11.82019</t>
+          <t>12.1419</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13.1913</t>
+          <t>12.87824</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>13.1869</t>
+          <t>12.87584</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>13.15423</t>
+          <t>12.8759</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>13.17981</t>
+          <t>12.8581</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.490032</t>
+          <t>2023-09-22 10:42:39.657204</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>12.424001</v>
+        <v>12.531073</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>12.07198</t>
+          <t>12.12170</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>12.07641</t>
+          <t>12.12416</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>12.11082</t>
+          <t>12.12404</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>12.08353</t>
+          <t>12.1419</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12.92796</t>
+          <t>12.87824</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>12.92359</t>
+          <t>12.87584</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>12.88915</t>
+          <t>12.8759</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>12.91647</t>
+          <t>12.8581</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.587164</t>
+          <t>2023-09-22 10:42:39.753555</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>12.521133</v>
+        <v>12.627424</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12.07198</t>
+          <t>12.12170</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>12.07641</t>
+          <t>12.12416</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>12.11082</t>
+          <t>12.12404</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>12.08353</t>
+          <t>12.1419</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12.92796</t>
+          <t>12.87824</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>12.92359</t>
+          <t>12.87584</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>12.88915</t>
+          <t>12.8759</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>12.91647</t>
+          <t>12.8581</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.683365</t>
+          <t>2023-09-22 10:42:39.850680</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>12.617334</v>
+        <v>12.724549</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12.07198</t>
+          <t>12.37611</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>12.07641</t>
+          <t>12.37828</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>12.11082</t>
+          <t>12.37686</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12.08353</t>
+          <t>12.3939</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12.92796</t>
+          <t>12.62383</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>12.92359</t>
+          <t>12.62172</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>12.88915</t>
+          <t>12.62308</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>12.91647</t>
+          <t>12.6061</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.779472</t>
+          <t>2023-09-22 10:42:39.947691</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>12.713441</v>
+        <v>12.82156</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12.33698</t>
+          <t>12.37611</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>12.34144</t>
+          <t>12.37828</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>12.37489</t>
+          <t>12.37686</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>12.34847</t>
+          <t>12.3939</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>12.66296</t>
+          <t>12.62383</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>12.65856</t>
+          <t>12.62172</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>12.62508</t>
+          <t>12.62308</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>12.65153</t>
+          <t>12.6061</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.876338</t>
+          <t>2023-09-22 10:42:40.044259</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>12.810307</v>
+        <v>12.918128</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12.33698</t>
+          <t>12.37611</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>12.34144</t>
+          <t>12.37828</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>12.37489</t>
+          <t>12.37686</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>12.34847</t>
+          <t>12.3939</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12.66296</t>
+          <t>12.62383</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>12.65856</t>
+          <t>12.62172</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>12.62508</t>
+          <t>12.62308</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>12.65153</t>
+          <t>12.6061</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:54.972603</t>
+          <t>2023-09-22 10:42:40.142227</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>12.906572</v>
+        <v>13.016096</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12.60304</t>
+          <t>12.63882</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>12.6078</t>
+          <t>12.64128</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>12.62554</t>
+          <t>12.64116</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>12.61463</t>
+          <t>12.65873</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12.3969</t>
+          <t>12.36112</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>12.3922</t>
+          <t>12.35872</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>12.37443</t>
+          <t>12.35878</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>12.38537</t>
+          <t>12.34127</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.068744</t>
+          <t>2023-09-22 10:42:40.238650</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>13.002713</v>
+        <v>13.112519</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12.60304</t>
+          <t>12.63882</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>12.6078</t>
+          <t>12.64128</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12.62554</t>
+          <t>12.64116</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12.61463</t>
+          <t>12.65873</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>12.3969</t>
+          <t>12.36112</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>12.3922</t>
+          <t>12.35872</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>12.37443</t>
+          <t>12.35878</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>12.38537</t>
+          <t>12.34127</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.165740</t>
+          <t>2023-09-22 10:42:40.335403</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>13.099709</v>
+        <v>13.209272</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>12.60304</t>
+          <t>12.88920</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>12.6078</t>
+          <t>12.90625</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>12.62554</t>
+          <t>12.89158</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>12.61463</t>
+          <t>12.9094</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12.3969</t>
+          <t>12.11074</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>12.3922</t>
+          <t>12.09375</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>12.37443</t>
+          <t>12.10836</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>12.38537</t>
+          <t>12.0906</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.261946</t>
+          <t>2023-09-22 10:42:40.432407</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>13.195915</v>
+        <v>13.306276</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12.87114</t>
+          <t>12.88920</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12.87563</t>
+          <t>12.90625</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>12.87893</t>
+          <t>12.89158</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>12.88206</t>
+          <t>12.9094</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12.1288</t>
+          <t>12.11074</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>12.12437</t>
+          <t>12.09375</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>12.12104</t>
+          <t>12.10836</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>12.11794</t>
+          <t>12.0906</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.357949</t>
+          <t>2023-09-22 10:42:40.528852</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>13.291918</v>
+        <v>13.402721</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12.87114</t>
+          <t>12.88920</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12.87563</t>
+          <t>12.90625</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>12.87893</t>
+          <t>12.89158</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>12.88206</t>
+          <t>12.9094</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12.1288</t>
+          <t>12.11074</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>12.12437</t>
+          <t>12.09375</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>12.12104</t>
+          <t>12.10836</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>12.11794</t>
+          <t>12.0906</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.454337</t>
+          <t>2023-09-22 10:42:40.625513</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>13.388306</v>
+        <v>13.499382</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12.87114</t>
+          <t>13.15400</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12.87563</t>
+          <t>13.17128</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>12.87893</t>
+          <t>13.15634</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>12.88206</t>
+          <t>13.17414</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12.1288</t>
+          <t>11.84594</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>12.12437</t>
+          <t>11.82872</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>12.12104</t>
+          <t>11.8436</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>12.11794</t>
+          <t>11.82586</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.550742</t>
+          <t>2023-09-22 10:42:40.722799</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>13.484711</v>
+        <v>13.596668</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>13.13438</t>
+          <t>13.15400</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>13.13887</t>
+          <t>13.17128</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>13.14243</t>
+          <t>13.15634</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>13.13146</t>
+          <t>13.17414</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>11.86556</t>
+          <t>11.84594</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>11.86113</t>
+          <t>11.82872</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>11.85754</t>
+          <t>11.8436</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>11.86854</t>
+          <t>11.82586</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.647050</t>
+          <t>2023-09-22 10:42:40.820207</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13.581019</v>
+        <v>13.694076</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>13.13438</t>
+          <t>13.15400</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13.13887</t>
+          <t>13.17128</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>13.14243</t>
+          <t>13.15634</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>13.13146</t>
+          <t>13.17414</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>11.86556</t>
+          <t>11.84594</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>11.86113</t>
+          <t>11.82872</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>11.85754</t>
+          <t>11.8436</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>11.86854</t>
+          <t>11.82586</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.743836</t>
+          <t>2023-09-22 10:42:40.916680</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>13.677805</v>
+        <v>13.790549</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>13.13438</t>
+          <t>13.41868</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>13.39122</t>
+          <t>13.43833</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>13.39342</t>
+          <t>13.42100</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>13.13146</t>
+          <t>13.43833</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11.86556</t>
+          <t>11.58126</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>11.60878</t>
+          <t>11.56167</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>11.60655</t>
+          <t>11.57894</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>11.86854</t>
+          <t>11.56167</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.840248</t>
+          <t>2023-09-22 10:42:41.014254</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13.774217</v>
+        <v>13.888123</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>13.38584</t>
+          <t>13.41868</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>13.39122</t>
+          <t>13.43833</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>13.39342</t>
+          <t>13.42100</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>13.39686</t>
+          <t>13.43833</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11.6141</t>
+          <t>11.58126</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>11.60878</t>
+          <t>11.56167</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>11.60655</t>
+          <t>11.57894</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>11.60314</t>
+          <t>11.56167</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:55.936419</t>
+          <t>2023-09-22 10:42:41.110675</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13.870388</v>
+        <v>13.984544</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>13.38584</t>
+          <t>13.41868</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13.39122</t>
+          <t>13.43833</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>13.39342</t>
+          <t>13.42100</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>13.39686</t>
+          <t>13.70304</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>11.6141</t>
+          <t>11.58126</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>11.60878</t>
+          <t>11.56167</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>11.60655</t>
+          <t>11.57894</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>11.60314</t>
+          <t>11.29696</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.033044</t>
+          <t>2023-09-22 10:42:41.207706</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>13.967013</v>
+        <v>14.081575</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>13.64947</t>
+          <t>13.68294</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>13.6543</t>
+          <t>13.70067</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>13.65775</t>
+          <t>13.68536</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>13.6616</t>
+          <t>13.70304</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11.35047</t>
+          <t>11.317</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>11.3457</t>
+          <t>11.29933</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>11.34222</t>
+          <t>11.31458</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>11.3384</t>
+          <t>11.29696</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.129133</t>
+          <t>2023-09-22 10:42:41.304516</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>14.063102</v>
+        <v>14.178385</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>13.64947</t>
+          <t>13.68294</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>13.6543</t>
+          <t>13.70067</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>13.65775</t>
+          <t>13.68536</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>13.6616</t>
+          <t>13.70304</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>11.35047</t>
+          <t>11.317</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>11.3457</t>
+          <t>11.29933</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>11.34222</t>
+          <t>11.31458</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>11.3384</t>
+          <t>11.29696</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.225166</t>
+          <t>2023-09-22 10:42:41.401247</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14.159135</v>
+        <v>14.275116</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>13.64947</t>
+          <t>13.94724</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>13.6543</t>
+          <t>13.9651</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>13.65775</t>
+          <t>13.94937</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>13.6616</t>
+          <t>13.96746</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>11.35047</t>
+          <t>11.0527</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>11.3457</t>
+          <t>11.0349</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>11.34222</t>
+          <t>11.05057</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>11.3384</t>
+          <t>11.03254</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.321605</t>
+          <t>2023-09-22 10:42:41.498358</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>14.255574</v>
+        <v>14.372227</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>13.91554</t>
+          <t>13.94724</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>13.91968</t>
+          <t>13.9651</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>13.92307</t>
+          <t>13.94937</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>13.92654</t>
+          <t>13.96746</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>11.0844</t>
+          <t>11.0527</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>11.08032</t>
+          <t>11.0349</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>11.0769</t>
+          <t>11.05057</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>11.07346</t>
+          <t>11.03254</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.417637</t>
+          <t>2023-09-22 10:42:41.595129</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>14.351606</v>
+        <v>14.468998</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>13.91554</t>
+          <t>13.94724</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>13.91968</t>
+          <t>13.9651</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>13.92307</t>
+          <t>13.94937</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>13.92654</t>
+          <t>13.96746</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>11.0844</t>
+          <t>11.0527</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>11.08032</t>
+          <t>11.0349</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>11.0769</t>
+          <t>11.05057</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>11.07346</t>
+          <t>11.03254</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.513617</t>
+          <t>2023-09-22 10:42:41.692479</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>14.447586</v>
+        <v>14.566348</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>13.91554</t>
+          <t>14.19967</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>13.91968</t>
+          <t>14.2172</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>13.92307</t>
+          <t>14.20219</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>13.92654</t>
+          <t>14.2199</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>11.0844</t>
+          <t>10.80027</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>11.08032</t>
+          <t>10.7828</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>11.0769</t>
+          <t>10.79775</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>11.07346</t>
+          <t>10.7801</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.610744</t>
+          <t>2023-09-22 10:42:41.795440</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>14.544713</v>
+        <v>14.669309</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>14.17727</t>
+          <t>14.19967</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>14.1824</t>
+          <t>14.2172</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>14.18507</t>
+          <t>14.20219</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>14.1895</t>
+          <t>14.2199</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10.82267</t>
+          <t>10.80027</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>10.8176</t>
+          <t>10.7828</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>10.8149</t>
+          <t>10.79775</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>10.8105</t>
+          <t>10.7801</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.706871</t>
+          <t>2023-09-22 10:42:41.892461</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>14.64084</v>
+        <v>14.76633</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>14.17727</t>
+          <t>14.19967</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>14.1824</t>
+          <t>14.2172</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>14.18507</t>
+          <t>14.46718</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>14.1895</t>
+          <t>14.48493</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10.82267</t>
+          <t>10.80027</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>10.8176</t>
+          <t>10.7828</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10.8149</t>
+          <t>10.53276</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>10.8105</t>
+          <t>10.51507</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.803566</t>
+          <t>2023-09-22 10:42:41.989359</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>14.737535</v>
+        <v>14.863228</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>14.42838</t>
+          <t>14.46474</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>14.4331</t>
+          <t>14.48255</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>14.43651</t>
+          <t>14.46718</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>14.43987</t>
+          <t>14.48493</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10.57156</t>
+          <t>10.5352</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>10.5669</t>
+          <t>10.51745</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10.56346</t>
+          <t>10.53276</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>10.56013</t>
+          <t>10.51507</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.899720</t>
+          <t>2023-09-22 10:42:42.086142</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>14.833689</v>
+        <v>14.960011</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>14.42838</t>
+          <t>14.46474</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>14.4331</t>
+          <t>14.48255</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>14.43651</t>
+          <t>14.46718</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>14.43987</t>
+          <t>14.48493</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10.57156</t>
+          <t>10.5352</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>10.5669</t>
+          <t>10.51745</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>10.56346</t>
+          <t>10.53276</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>10.56013</t>
+          <t>10.51507</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2023-09-21 17:15:56.995723</t>
+          <t>2023-09-22 10:42:42.183252</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>14.929692</v>
+        <v>15.057121</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>14.42838</t>
+          <t>14.71511</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>14.4331</t>
+          <t>14.74726</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>14.43651</t>
+          <t>14.71714</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>14.43987</t>
+          <t>14.7349</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10.57156</t>
+          <t>10.28483</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>10.5669</t>
+          <t>10.25274</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>10.56346</t>
+          <t>10.2828</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>10.56013</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2023-09-21 17:15:57.091753</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>15.025722</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>14.67902</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>14.68348</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>14.68652</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>14.6906</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>10.32092</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>10.31652</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>10.31345</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>10.3094</t>
+          <t>10.2651</t>
         </is>
       </c>
     </row>
